--- a/assets/files/CV1.xlsx
+++ b/assets/files/CV1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9810" windowHeight="5520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -421,12 +421,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,1999 +735,1999 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="8.85546875" style="3"/>
+    <col min="20" max="20" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>15.656565656565656</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>58.080808080808083</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>22.222222222222221</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>4.0404040404040407</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>198</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>15.957446808510639</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>56.382978723404257</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>22.340425531914892</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>5.3191489361702127</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>188</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>15.803108808290155</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>57.253886010362692</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>22.279792746113991</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>4.6632124352331603</v>
       </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
         <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>37.5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>24.193548387096776</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>13.306451612903226</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>20.66115702479339</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>61.15702479338843</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>7.4380165289256199</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>10.743801652892563</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>23.577235772357724</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>45.257452574525743</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>18.699186991869919</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>12.466124661246612</v>
       </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
         <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>13.686534216335541</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>50.110375275938189</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>28.697571743929359</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>7.0640176600441498</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>0.44150110375275936</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>453</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>18.623481781376519</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>60.323886639676111</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>13.765182186234817</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>6.4777327935222671</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.80971659919028338</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>247</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>15.428571428571429</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>53.714285714285715</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>23.428571428571427</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>6.8571428571428568</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>0.5714285714285714</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>16.455696202531644</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>60.759493670886073</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>17.721518987341771</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>3.7974683544303796</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>19.064748201438849</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>63.309352517985609</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>12.949640287769784</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>4.6762589928057556</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>18.487394957983192</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>62.745098039215684</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>14.005602240896359</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>4.4817927170868348</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>13.559322033898304</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>45.197740112994353</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>33.898305084745765</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>5.6497175141242941</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>1.6949152542372881</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>177</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>12.5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>42.307692307692307</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>39.42307692307692</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>4.8076923076923075</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>0.96153846153846156</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>104</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>13.167259786476869</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>44.128113879003557</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>35.943060498220639</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>5.3380782918149468</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>1.4234875444839858</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>8.7179487179487172</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>44.102564102564102</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>47.179487179487182</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>36.619718309859152</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>61.032863849765256</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>0.46948356807511737</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>4.6568627450980395</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>40.196078431372548</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>54.411764705882355</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>0.24509803921568626</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>0.49019607843137253</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>30.232558139534884</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>20.930232558139537</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>6.9767441860465116</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>39.534883720930232</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>17.737003058103976</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>50.458715596330272</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>23.853211009174313</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>5.1987767584097861</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>2.7522935779816513</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>19.189189189189189</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>47.027027027027025</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>21.891891891891891</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>9.1891891891891895</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>30.612244897959183</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>46.530612244897959</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>13.877551020408163</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>7.7551020408163263</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>1.2244897959183674</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>22.302158273381295</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>48.920863309352519</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>10.071942446043165</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>15.827338129496402</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>2.8776978417266186</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>27.604166666666668</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>47.395833333333336</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>12.5</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>10.677083333333334</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1.8229166666666667</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>82.758620689655174</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>8.0459770114942533</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>11.387900355871887</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>73.665480427046262</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>12.099644128113878</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>2.8469750889679717</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>10.326086956521738</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>75.815217391304344</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>11.141304347826088</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>2.7173913043478262</v>
       </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>8.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>47.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>23</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>21</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>6.0773480662983426</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>35.35911602209945</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>52.486187845303867</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>6.0773480662983426</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>7.349081364829396</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>41.732283464566926</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>37.00787401574803</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>13.910761154855644</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
         <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>54.86725663716814</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>34.070796460176993</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>5.3097345132743365</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>5.7522123893805306</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>73.376623376623371</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>5.8441558441558445</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>2.5974025974025974</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>40</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>50</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>5.5263157894736841</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>4.4736842105263159</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>22.746781115879827</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>43.347639484978544</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>18.884120171673821</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>11.587982832618026</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>3.4334763948497855</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>233</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>48.148148148148145</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>28.703703703703702</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>4.6296296296296298</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>17.888563049853371</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>44.868035190615835</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>21.994134897360702</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>11.436950146627566</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>3.8123167155425222</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>10.56910569105691</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>58.536585365853661</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>18.699186991869919</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>10.56910569105691</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>1.6260162601626016</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>13.944223107569721</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>49.800796812749006</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>16.733067729083665</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>11.553784860557769</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>7.9681274900398407</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>12.834224598930481</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>52.673796791443849</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>17.379679144385026</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>11.229946524064172</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>54.166666666666664</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>12.5</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>52.976190476190474</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>27.976190476190474</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>1.4880952380952381</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>17.261904761904763</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.29761904761904762</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>336</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>53.125</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>26.041666666666668</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>1.3020833333333333</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>19.270833333333332</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.26041666666666669</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>4.666666666666667</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>30.666666666666668</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>64</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>0.42553191489361702</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>36.595744680851062</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>62.978723404255319</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>235</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>2.0779220779220777</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>34.285714285714285</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>63.376623376623378</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>0.25974025974025972</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
         <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>14.435695538057743</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>47.769028871391079</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>20.472440944881889</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>15.485564304461942</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>14.435695538057743</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>47.769028871391079</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>20.472440944881889</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>15.485564304461942</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>20.512820512820515</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>51.282051282051285</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>28.44574780058651</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>35.483870967741936</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>9.67741935483871</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>24.926686217008797</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.466275659824047</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>341</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>27.631578947368421</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>37.10526315789474</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>9.7368421052631575</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>23.684210526315791</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>1.8421052631578947</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>27.011494252873565</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>63.218390804597703</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>8.6206896551724146</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>69.398907103825138</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>21.857923497267759</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.54644808743169404</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>17.366946778711483</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>66.386554621848745</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>15.406162464985995</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>0.84033613445378152</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
         <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>42.424242424242422</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>15.151515151515152</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>15.151515151515152</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>3.0303030303030303</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>47.683923705722073</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>27.247956403269754</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>6.8119891008174385</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>16.621253405994551</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.6348773841961852</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>367</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>45.75</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>28.5</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>7.5</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>16.5</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>1.75</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>52.216748768472904</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>1.9704433497536946</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>14.444444444444445</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>58.333333333333336</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>19.444444444444443</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>6.1111111111111107</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>12.271540469973891</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>55.091383812010442</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>24.281984334203656</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>6.5274151436031334</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>20.809248554913296</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>45.664739884393065</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>30.057803468208093</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>3.4682080924855492</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>10.784313725490197</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>59.803921568627452</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>23.03921568627451</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>3.9215686274509802</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>2.4509803921568629</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>204</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>53.315649867374006</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>26.259946949602121</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>3.7135278514588861</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>1.3262599469496021</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>21.808510638297872</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>48.404255319148938</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>19.148936170212767</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>10.106382978723405</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>0.53191489361702127</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>27.692307692307693</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>46.666666666666664</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>15.897435897435898</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>8.7179487179487172</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.0256410256410255</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>24.804177545691907</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>47.519582245430811</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>17.493472584856399</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>9.3994778067885125</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>0.78328981723237601</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>4.0625</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>6.25</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.625</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>87.8125</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>1.25</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>41.935483870967744</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>33.87096774193548</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>11.290322580645162</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>10.209424083769633</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>10.732984293193716</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>2.3560209424083771</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>75.654450261780099</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>1.0471204188481675</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>25.925925925925927</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>41.798941798941797</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>19.576719576719576</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>11.640211640211641</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>1.0582010582010581</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>189</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>9.375</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>44.791666666666664</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>34.895833333333336</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>2.6041666666666665</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>17.58530183727034</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>43.30708661417323</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>27.296587926509186</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>9.9737532808398957</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>25.520833333333332</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>55.902777777777779</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>11.979166666666666</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>6.0763888888888893</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>29.363905325443788</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>39.27514792899408</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>16.420118343195266</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>13.461538461538462</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>1.4792899408284024</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1352</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>28.215767634854771</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>44.242738589211619</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>15.093360995850622</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>11.255186721991702</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>1.1929460580912863</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>1928</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>16.176470588235293</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>57.352941176470587</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>23.529411764705884</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>12.29050279329609</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>51.76908752327747</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>24.022346368715084</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>11.918063314711359</v>
       </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
         <v>537</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>13.075780089153046</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>52.897473997028229</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>23.922734026745914</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>10.104011887072808</v>
       </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="4">
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>18.045112781954888</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>54.887218045112782</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>17.293233082706767</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>7.518796992481203</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>2.255639097744361</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>16.842105263157894</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>52.631578947368418</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>16.315789473684209</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>12.105263157894736</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>2.1052631578947367</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>17.337461300309599</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>53.56037151702786</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>16.71826625386997</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>10.216718266253871</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>2.1671826625386998</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>23.26530612244898</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>45.306122448979593</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>18.367346938775512</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>11.836734693877551</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>1.2244897959183674</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>245</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>17.355371900826448</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>47.933884297520663</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>24.793388429752067</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>8.2644628099173545</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>1.6528925619834711</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>121</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>21.311475409836067</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>46.174863387978142</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>20.491803278688526</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>10.655737704918034</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>1.3661202185792349</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="3">
         <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>27.096774193548388</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>44.516129032258064</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>23.225806451612904</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>3.870967741935484</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.2903225806451613</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>21.304347826086957</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>54.782608695652172</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>16.521739130434781</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>6.5217391304347823</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>0.86956521739130432</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>230</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>23.636363636363637</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>50.649350649350652</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>19.220779220779221</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>5.4545454545454541</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>1.0389610389610389</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="3">
         <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>20.72072072072072</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>49.549549549549546</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>24.324324324324323</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>5.4054054054054053</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>22.794117647058822</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>47.058823529411768</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>13.235294117647058</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>14.338235294117647</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>2.5735294117647061</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>22.193211488250654</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>47.780678851174933</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>16.449086161879894</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>11.74934725848564</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>40</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>40</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>13.927576601671309</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>53.48189415041783</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>24.512534818941504</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>7.2423398328690807</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>0.83565459610027859</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>359</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>13.903743315508022</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>52.941176470588232</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>25.133689839572192</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>7.2192513368983962</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>0.80213903743315507</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="3">
         <v>374</v>
       </c>
     </row>
@@ -2740,1999 +2741,1999 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="8.85546875" style="3"/>
+    <col min="20" max="20" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>24.623115577889447</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>62.311557788944725</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>9.5477386934673358</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>3.0150753768844223</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>0.50251256281407031</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>26.455026455026456</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>49.735449735449734</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>12.698412698412698</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>25.515463917525775</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>56.185567010309278</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>11.082474226804123</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>6.9587628865979383</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.25773195876288657</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>36.947791164658632</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>36.546184738955823</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>10.843373493975903</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>15.261044176706827</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.40160642570281124</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>23.577235772357724</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>51.219512195121951</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>15.447154471544716</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>9.7560975609756095</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
         <v>123</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>32.526881720430104</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>41.397849462365592</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>12.365591397849462</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>13.440860215053764</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.26881720430107525</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>13.907284768211921</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>52.097130242825607</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>23.841059602649008</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>7.9470198675496686</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>2.2075055187637971</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>453</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>17.813765182186234</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>54.251012145748987</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>24.291497975708502</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>3.6437246963562755</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
         <v>247</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>15.285714285714286</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>52.857142857142854</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>24</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>6.4285714285714288</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>1.4285714285714286</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>11.39240506329114</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>75.949367088607602</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>11.39240506329114</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>17.625899280575538</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>62.949640287769782</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>13.309352517985612</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>6.1151079136690649</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>16.246498599439775</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>65.826330532212879</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>12.88515406162465</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>5.0420168067226889</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>13.586956521739131</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>46.195652173913047</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>31.521739130434781</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>5.9782608695652177</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>2.7173913043478262</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>184</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>16.19047619047619</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>48.571428571428569</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>29.523809523809526</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>0.95238095238095233</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>105</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>14.53287197231834</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>47.058823529411768</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>30.79584775086505</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>5.5363321799307954</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>2.0761245674740483</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>16.410256410256409</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>49.230769230769234</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>32.307692307692307</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>2.0512820512820511</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>8.92018779342723</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>51.173708920187792</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>37.558685446009392</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>1.8779342723004695</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>0.46948356807511737</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>12.5</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>50.245098039215684</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>35.049019607843135</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>0.24509803921568626</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>16.279069767441861</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>25.581395348837209</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>51.162790697674417</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>29.357798165137616</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>32.415902140672785</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>14.067278287461773</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>22.935779816513762</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>1.2232415902140672</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>27.837837837837839</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>31.621621621621621</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>12.972972972972974</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>26.216216216216218</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>1.3513513513513513</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>18.292682926829269</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>54.878048780487802</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>13.414634146341463</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>9.3495934959349594</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4.0650406504065044</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>26.618705035971225</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>48.201438848920866</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>6.4748201438848918</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>16.546762589928058</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>2.1582733812949639</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>21.2987012987013</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>52.467532467532465</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>10.909090909090908</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>11.948051948051948</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>3.3766233766233764</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>22.988505747126435</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>59.770114942528735</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>10.676156583629894</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>66.903914590747334</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>18.14946619217082</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>4.2704626334519569</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>13.586956521739131</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>65.217391304347828</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>16.304347826086957</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>4.8913043478260869</v>
       </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>9.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>41.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>17</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>32</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>15.469613259668508</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>34.806629834254146</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>38.674033149171272</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>11.049723756906078</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>12.335958005249344</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>38.320209973753279</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>27.296587926509186</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>22.047244094488189</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>49.557522123893804</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>10.619469026548673</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>39.823008849557525</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>55.194805194805198</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>37.012987012987011</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>2.5974025974025974</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>51.842105263157897</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>21.315789473684209</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>1.0526315789473684</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>25.526315789473685</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>15.086206896551724</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>50.862068965517238</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>21.982758620689655</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>9.9137931034482758</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>2.1551724137931036</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>232</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>21.100917431192659</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>35.779816513761467</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>33.027522935779814</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>10.091743119266056</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
         <v>109</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>17.008797653958943</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>46.041055718475072</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>25.513196480938415</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>9.9706744868035191</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>1.466275659824047</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>13.114754098360656</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>59.016393442622949</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>22.131147540983605</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>4.918032786885246</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>18.725099601593627</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>50.199203187250994</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>10.358565737051793</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>19.920318725099602</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>0.79681274900398402</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>16.890080428954423</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>53.083109919571044</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>14.20911528150134</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>15.013404825737265</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>0.80428954423592491</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>47.916666666666664</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>37.5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>47.61904761904762</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>25.297619047619047</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>5.9523809523809526</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>20.535714285714285</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.59523809523809523</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>336</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>47.65625</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>23.177083333333332</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>5.729166666666667</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>22.65625</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.78125</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>5.333333333333333</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>48</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>46.666666666666664</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>1.6949152542372881</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>36.864406779661017</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>61.440677966101696</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>3.1088082901554404</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>41.191709844559583</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>55.699481865284973</v>
       </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>18.157894736842106</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>16.05263157894737</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>18.94736842105263</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>4.7368421052631575</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>18.157894736842106</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>16.05263157894737</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>18.94736842105263</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>4.7368421052631575</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>58.974358974358971</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>20.512820512820515</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>38.888888888888886</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>42.982456140350877</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>7.3099415204678362</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>9.064327485380117</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.7543859649122806</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>342</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>36.482939632545929</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>44.619422572178479</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>8.6614173228346463</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>8.1364829396325451</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>2.0997375328083989</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>45.664739884393065</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>49.132947976878611</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>4.0462427745664744</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>1.1560693641618498</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>173</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>31.693989071038253</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>57.377049180327866</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>2.7322404371584699</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>38.483146067415731</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>53.370786516853933</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>6.1797752808988768</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>1.9662921348314606</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>39.393939393939391</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>15.151515151515152</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>15.151515151515152</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>30.303030303030305</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>44.230769230769234</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>24.450549450549449</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>4.1208791208791204</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>26.098901098901099</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.098901098901099</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>364</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>43.828715365239297</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>23.677581863979849</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>5.0377833753148611</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>26.448362720403022</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>1.0075566750629723</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>24.630541871921181</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>45.320197044334975</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>21.182266009852217</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>8.3743842364532028</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>0.49261083743842365</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>24.444444444444443</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>48.888888888888886</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>14.444444444444445</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>11.666666666666666</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>24.543080939947782</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>46.997389033942561</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>18.015665796344649</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>9.9216710182767631</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>13.372093023255815</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>46.511627906976742</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>31.976744186046513</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>8.1395348837209305</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>172</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>18.048780487804876</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>46.829268292682926</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>26.341463414634145</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>8.2926829268292686</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>0.48780487804878048</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>15.915119363395226</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>46.684350132625994</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>28.912466843501328</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>8.2228116710875323</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>0.26525198938992045</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>20.74468085106383</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>47.872340425531917</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>20.212765957446809</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>10.638297872340425</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>0.53191489361702127</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>24.615384615384617</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>45.641025641025642</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>18.974358974358974</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>8.2051282051282044</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>22.715404699738905</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>46.736292428198432</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>19.582245430809401</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>9.3994778067885125</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>1.566579634464752</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>5.3125</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>2.1875</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.9375</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>90.625</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.9375</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>35.483870967741936</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>46.774193548387096</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>10.209424083769633</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>3.9267015706806281</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.5706806282722514</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>83.507853403141368</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.78534031413612571</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>29.62962962962963</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>39.682539682539684</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>15.873015873015873</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>11.640211640211641</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>3.1746031746031744</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>189</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>14.583333333333334</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>63.541666666666664</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>13.541666666666666</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>7.8125</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>22.047244094488189</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>51.706036745406827</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>14.698162729658792</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>9.7112860892388451</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>18.890814558058924</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>65.337954939341415</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>10.918544194107453</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>3.119584055459272</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.733102253032929</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>577</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>27.522255192878337</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>43.175074183976264</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>17.58160237388724</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>10.459940652818991</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>1.2611275964391691</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1348</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>24.935064935064936</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>49.81818181818182</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>15.584415584415584</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>8.2597402597402603</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>1.4025974025974026</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1925</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>22.535211267605632</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>69.014084507042256</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.6338028169014081</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.816901408450704</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>142</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>19.101123595505619</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>64.794007490636702</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>11.235955056179776</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>4.868913857677903</v>
       </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
         <v>534</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>19.822485207100591</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>65.680473372781066</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>10.059171597633137</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>4.4378698224852071</v>
       </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="4">
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
         <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>25.563909774436091</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>48.872180451127818</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>15.789473684210526</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>8.2706766917293226</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>1.5037593984962405</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>26.315789473684209</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>16.842105263157894</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>13.684210526315789</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>1.0526315789473684</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>26.006191950464395</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>44.891640866873068</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>16.408668730650156</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>11.455108359133128</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>1.2383900928792571</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>34.583333333333336</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>42.5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>12.5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>10.416666666666666</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
         <v>240</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>22.131147540983605</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>46.721311475409834</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>20.491803278688526</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>9.8360655737704921</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>30.386740331491712</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>43.922651933701658</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>15.193370165745856</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>10.220994475138122</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>0.27624309392265195</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>22.580645161290324</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>45.161290322580648</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>27.741935483870968</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>4.5161290322580649</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>24.137931034482758</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>53.017241379310342</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>12.068965517241379</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>9.9137931034482758</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>0.86206896551724133</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>23.51421188630491</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>49.870801033591732</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>18.34625322997416</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>7.7519379844961236</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>0.51679586563307489</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>24.324324324324323</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>35.135135135135137</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>30.63063063063063</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>7.2072072072072073</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>34.191176470588232</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>40.073529411764703</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>3.6764705882352939</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>19.117647058823529</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>31.331592689295039</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>38.642297650130551</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>11.488250652741515</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>15.66579634464752</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>2.8720626631853787</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>40</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>25.484764542936286</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>43.767313019390585</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>23.26869806094183</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>6.9252077562326866</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>0.554016620498615</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>361</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>24.73404255319149</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>43.351063829787236</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>23.936170212765958</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>7.4468085106382977</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>0.53191489361702127</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>376</v>
       </c>
     </row>
@@ -4746,1998 +4747,1998 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="8.85546875" style="3"/>
+    <col min="20" max="20" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>20.603015075376884</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>62.814070351758794</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>11.557788944723619</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>3.5175879396984926</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>22.75132275132275</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>56.613756613756614</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>16.93121693121693</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>21.649484536082475</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>59.793814432989691</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>14.175257731958762</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>3.6082474226804124</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.77319587628865982</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>45.714285714285715</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>27.346938775510203</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>10.204081632653061</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>15.510204081632653</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>1.2244897959183674</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>245</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>27.049180327868854</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>51.639344262295083</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>14.754098360655737</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
         <v>122</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>39.509536784741144</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>35.422343324250683</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>11.716621253405995</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>12.534059945504087</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.81743869209809261</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>14.606741573033707</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>47.640449438202246</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>19.325842696629213</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>14.382022471910112</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>4.0449438202247192</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>445</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>16.73469387755102</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>40.816326530612244</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>24.489795918367346</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>17.959183673469386</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
         <v>245</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>15.362318840579711</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>45.217391304347828</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>21.159420289855074</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>15.652173913043478</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>2.6086956521739131</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>28.205128205128204</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>55.128205128205131</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>1.2820512820512822</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>78</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>26.258992805755394</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>51.798561151079134</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>17.266187050359711</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>4.6762589928057556</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>26.685393258426966</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>52.528089887640448</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>16.853932584269664</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>3.6516853932584268</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.2808988764044944</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>12.222222222222221</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>45.555555555555557</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>37.222222222222221</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>3.3333333333333335</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>180</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>20.952380952380953</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>42.857142857142854</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>27.61904761904762</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>1.9047619047619047</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>105</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>15.43859649122807</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>44.561403508771932</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>33.684210526315788</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>4.5614035087719298</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>1.7543859649122806</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>37.948717948717949</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>35.897435897435898</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>11.794871794871796</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>9.7435897435897427</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>4.615384615384615</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>29.577464788732396</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>46.948356807511736</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>6.572769953051643</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>14.553990610328638</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>2.347417840375587</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>33.578431372549019</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>9.0686274509803919</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>12.254901960784315</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>3.4313725490196076</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>13.953488372093023</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>53.488372093023258</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>20.930232558139537</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>9.3023255813953494</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>16.819571865443425</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>42.813455657492355</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>33.027522935779814</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>6.4220183486238529</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.91743119266055051</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>16.486486486486488</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>44.054054054054056</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>31.621621621621621</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>6.756756756756757</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>1.0810810810810811</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>24.081632653061224</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>41.224489795918366</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>9.387755102040817</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>20.408163265306122</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4.8979591836734695</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>22.302158273381295</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>53.956834532374103</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>15.107913669064748</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>8.6330935251798557</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>23.4375</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>45.833333333333336</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>11.458333333333334</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>16.145833333333332</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>3.125</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>22.988505747126435</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>62.068965517241381</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>12.64367816091954</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>21.352313167259787</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>63.345195729537366</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>11.032028469750889</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>3.9145907473309607</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>0.35587188612099646</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>21.739130434782609</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>63.043478260869563</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>11.413043478260869</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>3.5326086956521738</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>0.27173913043478259</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>42</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>23.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>24.5</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>8.8888888888888893</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>37.777777777777779</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>49.444444444444443</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>3.8888888888888888</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>9.473684210526315</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>40</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>35.789473684210527</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>14.736842105263158</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>57.777777777777779</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>8.8888888888888893</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>2.2222222222222223</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>29.777777777777779</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>225</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>56.862745098039213</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>35.947712418300654</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>2.6143790849673203</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>4.5751633986928102</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>153</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>57.407407407407405</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>19.841269841269842</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>2.3809523809523809</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>19.576719576719576</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.79365079365079361</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>29.870129870129869</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>27.705627705627705</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>15.584415584415584</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>25.541125541125542</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>1.2987012987012987</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>231</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>28.181818181818183</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>29.09090909090909</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>10</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>30</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>2.7272727272727271</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>110</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>29.325513196480937</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>28.152492668621701</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>13.782991202346041</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>26.979472140762464</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>1.7595307917888563</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>18.852459016393443</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>44.26229508196721</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>24.590163934426229</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>10.655737704918034</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>19.52191235059761</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>50.597609561752989</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>19.920318725099602</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>9.1633466135458175</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>0.79681274900398402</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>19.302949061662197</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>48.525469168900806</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>21.447721179624665</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>9.6514745308310985</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>1.0723860589812333</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>31.25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <v>31.25</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>32.44047619047619</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>54.761904761904759</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>8.0357142857142865</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>1.7857142857142858</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>2.9761904761904763</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>336</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>32.291666666666664</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>52.083333333333336</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>7.552083333333333</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>1.5625</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>6.510416666666667</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>4.6979865771812079</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>50.335570469798661</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>40.268456375838923</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>4.6979865771812079</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>149</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>1.6949152542372881</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>46.186440677966104</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>52.118644067796609</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>2.8571428571428572</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>47.79220779220779</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>47.532467532467535</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>1.8181818181818181</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
         <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>14.627659574468085</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>39.627659574468083</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>34.574468085106382</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>7.9787234042553195</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>3.1914893617021276</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>376</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>14.627659574468085</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>39.627659574468083</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>34.574468085106382</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>7.9787234042553195</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>3.1914893617021276</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>34.210526315789473</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>38.596491228070178</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>47.66081871345029</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>2.9239766081871346</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>9.064327485380117</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.7543859649122806</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>342</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>38.157894736842103</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>47.10526315789474</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>3.6842105263157894</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>8.9473684210526319</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>2.1052631578947367</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>42.52873563218391</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>50</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>4.0229885057471266</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>1.7241379310344827</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>1.7241379310344827</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>10.382513661202186</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>65.573770491803273</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>23.497267759562842</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.54644808743169404</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>26.050420168067227</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>57.983193277310924</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>14.005602240896359</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>1.1204481792717087</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>0.84033613445378152</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>39.393939393939391</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>40.437158469945352</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>34.153005464480877</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>15.027322404371585</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>2.1857923497267762</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>366</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>39.097744360902254</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>34.586466165413533</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>9.022556390977444</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>15.288220551378446</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>2.0050125313283207</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>26.600985221674875</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>47.290640394088669</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>17.733990147783253</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>1.4778325123152709</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>21.111111111111111</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>45</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>25.555555555555557</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>24.020887728459531</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>46.214099216710181</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>21.409921671018278</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>6.7885117493472587</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.566579634464752</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>12.716763005780347</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>47.398843930635842</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>32.947976878612714</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>5.7803468208092488</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>1.1560693641618498</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>16.585365853658537</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>55.609756097560975</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>20</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>7.3170731707317076</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>0.48780487804878048</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>14.814814814814815</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>51.851851851851855</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>25.925925925925927</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>6.6137566137566139</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>0.79365079365079361</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>22.994652406417114</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>38.502673796791441</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>16.577540106951872</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>20.855614973262032</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>1.0695187165775402</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>187</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>21.134020618556701</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>37.628865979381445</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>17.52577319587629</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>22.164948453608247</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.5463917525773196</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>194</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>22.047244094488189</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>38.057742782152232</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>17.060367454068242</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>21.522309711286088</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>1.3123359580052494</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>5.625</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>4.0625</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>1.25</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>87.8125</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>1.25</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>51.612903225806448</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>22.580645161290324</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>3.225806451612903</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>22.580645161290324</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>13.089005235602095</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>7.0680628272251305</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.5706806282722514</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>77.225130890052355</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>1.0471204188481675</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>29.411764705882351</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>40.106951871657756</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>16.042780748663102</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>13.368983957219251</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>1.0695187165775402</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>187</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>16.93121693121693</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>48.677248677248677</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>26.455026455026456</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>6.8783068783068781</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>1.0582010582010581</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>189</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>23.138297872340427</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>44.414893617021278</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>21.276595744680851</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>10.106382978723405</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>21.354166666666668</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>58.159722222222221</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>15.104166666666666</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.2152777777777777</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>24.851632047477747</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>42.729970326409493</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>24.70326409495549</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>4.9703264094955486</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>2.7448071216617209</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1348</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>23.804573804573806</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>47.349272349272347</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>21.829521829521831</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>4.7297297297297298</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>2.2869022869022868</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1924</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>27.142857142857142</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>65.714285714285708</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>4.2857142857142856</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.8571428571428572</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>140</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>14.339622641509434</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>66.037735849056602</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>14.528301886792454</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>4.716981132075472</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.37735849056603776</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>530</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>17.014925373134329</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>65.97014925373135</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>12.388059701492537</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>4.3283582089552235</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.29850746268656714</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>18.796992481203006</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>30.827067669172934</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>15.789473684210526</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>3.007518796992481</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>15.425531914893616</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>46.808510638297875</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>22.872340425531913</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>11.170212765957446</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>3.7234042553191489</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>188</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>16.822429906542055</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>40.498442367601243</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>26.168224299065422</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>13.084112149532711</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>3.4267912772585669</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>35.470085470085472</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>36.324786324786324</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>14.957264957264957</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>12.393162393162394</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>0.85470085470085466</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>234</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>22.131147540983605</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>48.360655737704917</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>18.852459016393443</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>2.459016393442623</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>30.898876404494381</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>40.449438202247194</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>16.292134831460675</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>10.955056179775282</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>1.404494382022472</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>33.548387096774192</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>43.87096774193548</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>13.548387096774194</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>7.096774193548387</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.935483870967742</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>22.844827586206897</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>51.293103448275865</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>15.517241379310345</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>8.1896551724137936</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>2.1551724137931036</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>27.131782945736433</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>48.320413436692505</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>14.728682170542635</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>7.7519379844961236</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>2.0671834625322996</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>17.117117117117118</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>42.342342342342342</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>38.738738738738739</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>30.882352941176471</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>45.220588235294116</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>8.8235294117647065</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>11.029411764705882</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>4.0441176470588234</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>26.892950391644909</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>44.386422976501308</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>17.493472584856399</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>8.0939947780678843</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>3.133159268929504</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>50</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>7.1428571428571432</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>14</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>18.333333333333332</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>45.833333333333336</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>25</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>9.7222222222222214</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>1.1111111111111112</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>45.989304812834227</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>25.133689839572192</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>9.6256684491978604</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>1.0695187165775402</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>374</v>
       </c>
     </row>
